--- a/Assets/points.xlsx
+++ b/Assets/points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\LIVR\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB55D43-951E-4A99-B6AA-CDA58C2C0726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADABD5C-C026-4BE1-AC21-7BDA94A3AE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{61B829DA-B794-4082-86F2-FF2620DF3C2B}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/points.xlsx
+++ b/Assets/points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\LIVR\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66438AA7-19AB-4441-9980-F5A06A6CEC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D20ABF-BECF-41C0-AE38-A7B0DB03B4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{61B829DA-B794-4082-86F2-FF2620DF3C2B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>X</t>
   </si>
@@ -153,6 +153,63 @@
   </si>
   <si>
     <t>Frame Rate</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Visible Neighbors</t>
+  </si>
+  <si>
+    <t>22, 24</t>
+  </si>
+  <si>
+    <t>0,2,8,9,10</t>
+  </si>
+  <si>
+    <t>1,10,13,3,5</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>16,20</t>
+  </si>
+  <si>
+    <t>19,21</t>
+  </si>
+  <si>
+    <t>16,23</t>
+  </si>
+  <si>
+    <t>1,11,2</t>
+  </si>
+  <si>
+    <t>14,10,12,15</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>13,15,11,16,19</t>
+  </si>
+  <si>
+    <t>12,16,17,19</t>
+  </si>
+  <si>
+    <t>15,22,19,12,13</t>
   </si>
 </sst>
 </file>
@@ -188,8 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB37CE7-D5FB-4C37-B87B-3254C17E33C5}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +576,11 @@
     <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -530,7 +588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -580,10 +638,16 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -633,16 +697,19 @@
         <f>N3*0.0254</f>
         <v>0</v>
       </c>
-      <c r="T3" t="str">
-        <f>"{ ""X"":" &amp;P3&amp;", ""Y"":"&amp;Q3&amp;",""Z"":"&amp;R3&amp;", ""Frame"":"&amp;O3&amp;"}"</f>
-        <v>{ "X":0, "Y":0,"Z":0, "Frame":12}</v>
-      </c>
-      <c r="U3" t="str">
-        <f>T3&amp;","</f>
-        <v>{ "X":0, "Y":0,"Z":0, "Frame":12},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" t="str">
+        <f>"{ ""x"":" &amp;P3&amp;", ""y"":"&amp;Q3&amp;",""z"":"&amp;R3&amp;"}"</f>
+        <v>{ "x":0, "y":0,"z":0}</v>
+      </c>
+      <c r="W3" t="str">
+        <f>"{ ""Position"": " &amp;V3&amp;", ""Frame"":"&amp;O3&amp;", ""Neighbors"": ["&amp;T3&amp;"]},"</f>
+        <v>{ "Position": { "x":0, "y":0,"z":0}, "Frame":12, "Neighbors": [1]},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -686,16 +753,19 @@
         <f t="shared" ref="R4:R27" si="6">N4*0.0254</f>
         <v>2.4383999999999997</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T27" si="7">"{ ""X"":" &amp;P4&amp;", ""Y"":"&amp;Q4&amp;",""Z"":"&amp;R4&amp;", ""Frame"":"&amp;O4&amp;"}"</f>
-        <v>{ "X":0, "Y":0,"Z":2.4384, "Frame":37}</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U27" si="8">T4&amp;","</f>
-        <v>{ "X":0, "Y":0,"Z":2.4384, "Frame":37},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V27" si="7">"{ ""x"":" &amp;P4&amp;", ""y"":"&amp;Q4&amp;",""z"":"&amp;R4&amp;"}"</f>
+        <v>{ "x":0, "y":0,"z":2.4384}</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W27" si="8">"{ ""Position"": " &amp;V4&amp;", ""Frame"":"&amp;O4&amp;", ""Neighbors"": ["&amp;T4&amp;"]},"</f>
+        <v>{ "Position": { "x":0, "y":0,"z":2.4384}, "Frame":37, "Neighbors": [0,2,8,9,10]},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -739,16 +809,19 @@
         <f t="shared" si="6"/>
         <v>6.7055999999999996</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":0, "Y":0,"Z":6.7056, "Frame":62}</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":0, "Y":0,"Z":6.7056, "Frame":62},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":0, "y":0,"z":6.7056}</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":0, "y":0,"z":6.7056}, "Frame":62, "Neighbors": [1,10,13,3,5]},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -792,16 +865,19 @@
         <f t="shared" si="6"/>
         <v>10.972799999999999</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":0, "Y":0,"Z":10.9728, "Frame":87}</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":0, "Y":0,"Z":10.9728, "Frame":87},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":0, "y":0,"z":10.9728}</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":0, "y":0,"z":10.9728}, "Frame":87, "Neighbors": [2,4]},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -845,16 +921,19 @@
         <f t="shared" si="6"/>
         <v>14.6304</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":0, "Y":0,"Z":14.6304, "Frame":112}</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":0, "Y":0,"Z":14.6304, "Frame":112},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":0, "y":0,"z":14.6304}</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":0, "y":0,"z":14.6304}, "Frame":112, "Neighbors": [3]},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -901,16 +980,19 @@
         <f t="shared" si="6"/>
         <v>7.9247999999999994</v>
       </c>
-      <c r="T8" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":3.048, "Y":0,"Z":7.9248, "Frame":137}</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":3.048, "Y":0,"Z":7.9248, "Frame":137},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":3.048, "y":0,"z":7.9248}</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":3.048, "y":0,"z":7.9248}, "Frame":137, "Neighbors": [2,6]},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -957,16 +1039,19 @@
         <f t="shared" si="6"/>
         <v>12.192</v>
       </c>
-      <c r="T9" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":3.048, "Y":0,"Z":12.192, "Frame":162}</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":3.048, "Y":0,"Z":12.192, "Frame":162},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":3.048, "y":0,"z":12.192}</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":3.048, "y":0,"z":12.192}, "Frame":162, "Neighbors": [5,7]},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1013,16 +1098,19 @@
         <f t="shared" si="6"/>
         <v>15.24</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":3.048, "Y":0,"Z":15.24, "Frame":187}</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":3.048, "Y":0,"Z":15.24, "Frame":187},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":3.048, "y":0,"z":15.24}</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":3.048, "y":0,"z":15.24}, "Frame":187, "Neighbors": [6]},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1072,16 +1160,19 @@
         <f t="shared" si="6"/>
         <v>0.91439999999999999</v>
       </c>
-      <c r="T11" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-1.6256, "Y":0,"Z":0.9144, "Frame":212}</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-1.6256, "Y":0,"Z":0.9144, "Frame":212},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-1.6256, "y":0,"z":0.9144}</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-1.6256, "y":0,"z":0.9144}, "Frame":212, "Neighbors": [1]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1128,16 +1219,19 @@
         <f t="shared" si="6"/>
         <v>3.3527999999999998</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":1.524, "Y":0,"Z":3.3528, "Frame":237}</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":1.524, "Y":0,"Z":3.3528, "Frame":237},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":1.524, "y":0,"z":3.3528}</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":1.524, "y":0,"z":3.3528}, "Frame":237, "Neighbors": [1]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1184,16 +1278,19 @@
         <f t="shared" si="6"/>
         <v>3.6576</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-0.6096, "Y":0,"Z":3.6576, "Frame":262}</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-0.6096, "Y":0,"Z":3.6576, "Frame":262},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-0.6096, "y":0,"z":3.6576}</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-0.6096, "y":0,"z":3.6576}, "Frame":262, "Neighbors": [1,11,2]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1240,16 +1337,19 @@
         <f t="shared" si="6"/>
         <v>3.6576</v>
       </c>
-      <c r="T14" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-4.2672, "Y":0,"Z":3.6576, "Frame":287}</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-4.2672, "Y":0,"Z":3.6576, "Frame":287},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-4.2672, "y":0,"z":3.6576}</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-4.2672, "y":0,"z":3.6576}, "Frame":287, "Neighbors": [14,10,12,15]},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1296,16 +1396,19 @@
         <f t="shared" si="6"/>
         <v>6.7055999999999996</v>
       </c>
-      <c r="T15" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-4.2672, "Y":0,"Z":6.7056, "Frame":312}</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-4.2672, "Y":0,"Z":6.7056, "Frame":312},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-4.2672, "y":0,"z":6.7056}</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-4.2672, "y":0,"z":6.7056}, "Frame":312, "Neighbors": [13,15,11,16,19]},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1352,16 +1455,19 @@
         <f t="shared" si="6"/>
         <v>6.7055999999999996</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-2.4384, "Y":0,"Z":6.7056, "Frame":337}</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-2.4384, "Y":0,"Z":6.7056, "Frame":337},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-2.4384, "y":0,"z":6.7056}</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-2.4384, "y":0,"z":6.7056}, "Frame":337, "Neighbors": [2,12]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1408,16 +1514,19 @@
         <f t="shared" si="6"/>
         <v>1.524</v>
       </c>
-      <c r="T17" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-5.1816, "Y":0,"Z":1.524, "Frame":362}</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-5.1816, "Y":0,"Z":1.524, "Frame":362},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-5.1816, "y":0,"z":1.524}</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-5.1816, "y":0,"z":1.524}, "Frame":362, "Neighbors": [11,12]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1464,16 +1573,19 @@
         <f t="shared" si="6"/>
         <v>7.62</v>
       </c>
-      <c r="T18" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-5.1816, "Y":0,"Z":7.62, "Frame":387}</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-5.1816, "Y":0,"Z":7.62, "Frame":387},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-5.1816, "y":0,"z":7.62}</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-5.1816, "y":0,"z":7.62}, "Frame":387, "Neighbors": [12,16,17,19]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1520,16 +1632,19 @@
         <f t="shared" si="6"/>
         <v>7.62</v>
       </c>
-      <c r="T19" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-6.4008, "Y":0,"Z":7.62, "Frame":412}</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-6.4008, "Y":0,"Z":7.62, "Frame":412},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-6.4008, "y":0,"z":7.62}</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-6.4008, "y":0,"z":7.62}, "Frame":412, "Neighbors": [15,22,19,12,13]},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1576,16 +1691,19 @@
         <f t="shared" si="6"/>
         <v>10.972799999999999</v>
       </c>
-      <c r="T20" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-4.8768, "Y":0,"Z":10.9728, "Frame":437}</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-4.8768, "Y":0,"Z":10.9728, "Frame":437},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-4.8768, "y":0,"z":10.9728}</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-4.8768, "y":0,"z":10.9728}, "Frame":437, "Neighbors": [15,18]},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1632,16 +1750,19 @@
         <f t="shared" si="6"/>
         <v>14.6304</v>
       </c>
-      <c r="T21" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-4.8768, "Y":0,"Z":14.6304, "Frame":462}</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-4.8768, "Y":0,"Z":14.6304, "Frame":462},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-4.8768, "y":0,"z":14.6304}</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-4.8768, "y":0,"z":14.6304}, "Frame":462, "Neighbors": [17]},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1688,16 +1809,19 @@
         <f t="shared" si="6"/>
         <v>7.9247999999999994</v>
       </c>
-      <c r="T22" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":7.9248, "Frame":487}</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":7.9248, "Frame":487},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-7.9248, "y":0,"z":7.9248}</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-7.9248, "y":0,"z":7.9248}, "Frame":487, "Neighbors": [16,20]},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1744,16 +1868,19 @@
         <f t="shared" si="6"/>
         <v>11.5824</v>
       </c>
-      <c r="T23" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":11.5824, "Frame":512}</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":11.5824, "Frame":512},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-7.9248, "y":0,"z":11.5824}</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-7.9248, "y":0,"z":11.5824}, "Frame":512, "Neighbors": [19,21]},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1800,16 +1927,19 @@
         <f t="shared" si="6"/>
         <v>15.849599999999999</v>
       </c>
-      <c r="T24" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":15.8496, "Frame":537}</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-7.9248, "Y":0,"Z":15.8496, "Frame":537},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-7.9248, "y":0,"z":15.8496}</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-7.9248, "y":0,"z":15.8496}, "Frame":537, "Neighbors": [20]},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1856,16 +1986,19 @@
         <f t="shared" si="6"/>
         <v>5.1815999999999995</v>
       </c>
-      <c r="T25" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-7.0104, "Y":0,"Z":5.1816, "Frame":562}</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-7.0104, "Y":0,"Z":5.1816, "Frame":562},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-7.0104, "y":0,"z":5.1816}</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-7.0104, "y":0,"z":5.1816}, "Frame":562, "Neighbors": [16,23]},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1912,16 +2045,19 @@
         <f t="shared" si="6"/>
         <v>4.8767999999999994</v>
       </c>
-      <c r="T26" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-8.2296, "Y":0,"Z":4.8768, "Frame":587}</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-8.2296, "Y":0,"Z":4.8768, "Frame":587},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-8.2296, "y":0,"z":4.8768}</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-8.2296, "y":0,"z":4.8768}, "Frame":587, "Neighbors": [22, 24]},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1961,13 +2097,16 @@
         <f t="shared" si="6"/>
         <v>3.6576</v>
       </c>
-      <c r="T27" t="str">
-        <f t="shared" si="7"/>
-        <v>{ "X":-8.2296, "Y":0,"Z":3.6576, "Frame":612}</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="8"/>
-        <v>{ "X":-8.2296, "Y":0,"Z":3.6576, "Frame":612},</v>
+      <c r="T27">
+        <v>23</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="7"/>
+        <v>{ "x":-8.2296, "y":0,"z":3.6576}</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="8"/>
+        <v>{ "Position": { "x":-8.2296, "y":0,"z":3.6576}, "Frame":612, "Neighbors": [23]},</v>
       </c>
     </row>
   </sheetData>
